--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun\Desktop\materialdigital1_ontology_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA2AB6-EA28-4252-9715-23A3B6987553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464958FE-B6C2-4717-9F40-3D18698B3A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="2280" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="203">
   <si>
     <t>status_code</t>
   </si>
@@ -618,13 +618,40 @@
   </si>
   <si>
     <t>KNOW-NOW</t>
+  </si>
+  <si>
+    <t>http://qudt.org/vocab/quantitykind/</t>
+  </si>
+  <si>
+    <t>https://w3id.org/pmd/co/2.0.7/</t>
+  </si>
+  <si>
+    <t>http://qudt.org/vocab/unit/</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-sa/4.0/</t>
+  </si>
+  <si>
+    <t>https://purl.org/bpco/</t>
+  </si>
+  <si>
+    <t>https://www.materialdigital.de/project/</t>
+  </si>
+  <si>
+    <t>https://purl.org/</t>
+  </si>
+  <si>
+    <t>https://purl.org/bpco#</t>
+  </si>
+  <si>
+    <t>DigiBatMat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +672,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -683,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -692,6 +724,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -997,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,6 +2561,109 @@
       </c>
       <c r="D115" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116">
+        <v>200</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118">
+        <v>200</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119">
+        <v>200</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120">
+        <v>404</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121">
+        <v>200</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123">
+        <v>404</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun\Desktop\materialdigital1_ontology_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464958FE-B6C2-4717-9F40-3D18698B3A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D823D2DA-1972-43DC-A8DC-07701911674D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="2280" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t>status_code</t>
   </si>
@@ -645,6 +645,21 @@
   </si>
   <si>
     <t>DigiBatMat</t>
+  </si>
+  <si>
+    <t>http://emmo.info/emmo#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/steel/</t>
+  </si>
+  <si>
+    <t>https://w3id.org/steel/ProcessOntology/</t>
+  </si>
+  <si>
+    <t>application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t>StahlDigital</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,6 +2679,48 @@
       </c>
       <c r="F123" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124">
+        <v>200</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B125">
+        <v>404</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+      <c r="C126" t="s">
+        <v>206</v>
+      </c>
+      <c r="F126" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun\Desktop\materialdigital1_ontology_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D823D2DA-1972-43DC-A8DC-07701911674D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F5126-6480-47B9-A036-D5E10E1DD6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
